--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Rbp4</t>
   </si>
   <si>
     <t>Stra6</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.04334891733091</v>
+        <v>2.340836</v>
       </c>
       <c r="H2">
-        <v>2.04334891733091</v>
+        <v>7.022508</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9201365010625943</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.945301530316583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6453624529766711</v>
+        <v>0.7050613333333334</v>
       </c>
       <c r="N2">
-        <v>0.6453624529766711</v>
+        <v>2.115184</v>
       </c>
       <c r="O2">
-        <v>0.5126692333000978</v>
+        <v>0.5269220019002419</v>
       </c>
       <c r="P2">
-        <v>0.5126692333000978</v>
+        <v>0.6255697661075378</v>
       </c>
       <c r="Q2">
-        <v>1.318700669575901</v>
+        <v>1.650432951274667</v>
       </c>
       <c r="R2">
-        <v>1.318700669575901</v>
+        <v>14.853896561472</v>
       </c>
       <c r="S2">
-        <v>0.5126692333000978</v>
+        <v>0.4848401671613862</v>
       </c>
       <c r="T2">
-        <v>0.5126692333000978</v>
+        <v>0.5913520572212424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +578,185 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2.340836</v>
+      </c>
+      <c r="H3">
+        <v>7.022508</v>
+      </c>
+      <c r="I3">
+        <v>0.9201365010625943</v>
+      </c>
+      <c r="J3">
+        <v>0.945301530316583</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.633014</v>
+      </c>
+      <c r="N3">
+        <v>1.266028</v>
+      </c>
+      <c r="O3">
+        <v>0.4730779980997582</v>
+      </c>
+      <c r="P3">
+        <v>0.3744302338924622</v>
+      </c>
+      <c r="Q3">
+        <v>1.481781959704</v>
+      </c>
+      <c r="R3">
+        <v>8.890691758223999</v>
+      </c>
+      <c r="S3">
+        <v>0.4352963339012081</v>
+      </c>
+      <c r="T3">
+        <v>0.3539494730953406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.04334891733091</v>
-      </c>
-      <c r="H3">
-        <v>2.04334891733091</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.613465678414041</v>
-      </c>
-      <c r="N3">
-        <v>0.613465678414041</v>
-      </c>
-      <c r="O3">
-        <v>0.4873307666999023</v>
-      </c>
-      <c r="P3">
-        <v>0.4873307666999023</v>
-      </c>
-      <c r="Q3">
-        <v>1.253524429807003</v>
-      </c>
-      <c r="R3">
-        <v>1.253524429807003</v>
-      </c>
-      <c r="S3">
-        <v>0.4873307666999023</v>
-      </c>
-      <c r="T3">
-        <v>0.4873307666999023</v>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.2031735</v>
+      </c>
+      <c r="H4">
+        <v>0.406347</v>
+      </c>
+      <c r="I4">
+        <v>0.0798634989374057</v>
+      </c>
+      <c r="J4">
+        <v>0.05469846968341689</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.7050613333333334</v>
+      </c>
+      <c r="N4">
+        <v>2.115184</v>
+      </c>
+      <c r="O4">
+        <v>0.5269220019002419</v>
+      </c>
+      <c r="P4">
+        <v>0.6255697661075378</v>
+      </c>
+      <c r="Q4">
+        <v>0.143249778808</v>
+      </c>
+      <c r="R4">
+        <v>0.8594986728480001</v>
+      </c>
+      <c r="S4">
+        <v>0.04208183473885565</v>
+      </c>
+      <c r="T4">
+        <v>0.03421770888629535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.2031735</v>
+      </c>
+      <c r="H5">
+        <v>0.406347</v>
+      </c>
+      <c r="I5">
+        <v>0.0798634989374057</v>
+      </c>
+      <c r="J5">
+        <v>0.05469846968341689</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.633014</v>
+      </c>
+      <c r="N5">
+        <v>1.266028</v>
+      </c>
+      <c r="O5">
+        <v>0.4730779980997582</v>
+      </c>
+      <c r="P5">
+        <v>0.3744302338924622</v>
+      </c>
+      <c r="Q5">
+        <v>0.128611669929</v>
+      </c>
+      <c r="R5">
+        <v>0.514446679716</v>
+      </c>
+      <c r="S5">
+        <v>0.03778166419855006</v>
+      </c>
+      <c r="T5">
+        <v>0.02048076079712154</v>
       </c>
     </row>
   </sheetData>
